--- a/product_data.xlsx
+++ b/product_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,569 +365,598 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>material ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>demand per day</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pieces/box</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>demand_per_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>box_cost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ordering_cost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eoq.min</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eoq.max</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>b_sorting</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>b_not_sorting</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>eoq.min</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>eoq.max</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>number_of_lanes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Order_frequency_M</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Lot_size_q</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>deman_per_day_boxes</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>cycle_time_in_days</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Order_frequency_M</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Lot_size_q</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>number_of_lanes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>3103147</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7348808+73</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>30</v>
+        <v>6203060</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7305667+74</t>
+        </is>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>2.58</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>437</v>
+        <v>1.51</v>
       </c>
       <c r="G2">
-        <v>46.44</v>
+        <v>70</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>67.95</v>
       </c>
       <c r="I2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="J2">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>180</v>
+      </c>
+      <c r="L2">
+        <v>396</v>
+      </c>
+      <c r="M2">
         <v>297</v>
       </c>
-      <c r="K2">
-        <v>97</v>
-      </c>
-      <c r="L2">
-        <v>540</v>
-      </c>
-      <c r="M2">
-        <v>1.666666666666667</v>
-      </c>
       <c r="N2">
-        <v>9.895966400535217</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="R2">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3103147</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7346592+72</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>360</v>
+        <v>6203059</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7305669+77</t>
+        </is>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>1.99</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>1474</v>
+        <v>7.62</v>
       </c>
       <c r="G3">
-        <v>127.36</v>
+        <v>524</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>114.3</v>
       </c>
       <c r="I3">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="K3">
-        <v>108</v>
+        <v>381</v>
       </c>
       <c r="L3">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="M3">
-        <v>5.625</v>
+        <v>396</v>
       </c>
       <c r="N3">
-        <v>2.472523853612833</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3104147</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7455691+71</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>24</v>
+        <v>6203059</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7305670+77</t>
+        </is>
       </c>
       <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1.62</v>
+      </c>
+      <c r="G4">
+        <v>524</v>
+      </c>
+      <c r="H4">
+        <v>24.3</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+      <c r="J4">
+        <v>186</v>
+      </c>
+      <c r="K4">
+        <v>825</v>
+      </c>
+      <c r="L4">
+        <v>594</v>
+      </c>
+      <c r="M4">
+        <v>396</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>4.39</v>
-      </c>
-      <c r="F4">
-        <v>315</v>
-      </c>
-      <c r="G4">
-        <v>87.8</v>
-      </c>
-      <c r="H4">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>396</v>
-      </c>
-      <c r="J4">
-        <v>297</v>
-      </c>
-      <c r="K4">
-        <v>57</v>
-      </c>
-      <c r="L4">
-        <v>333</v>
-      </c>
-      <c r="M4">
-        <v>1.2</v>
-      </c>
-      <c r="N4">
-        <v>14.8609335248312</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>18</v>
-      </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3104147</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7455692+71</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>24</v>
+        <v>6203059</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7305673+76</t>
+        </is>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>4.39</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>315</v>
+        <v>1.51</v>
       </c>
       <c r="G5">
-        <v>87.8</v>
+        <v>492</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>24.16</v>
       </c>
       <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>181</v>
+      </c>
+      <c r="K5">
+        <v>802</v>
+      </c>
+      <c r="L5">
+        <v>594</v>
+      </c>
+      <c r="M5">
         <v>396</v>
       </c>
-      <c r="J5">
-        <v>297</v>
-      </c>
-      <c r="K5">
-        <v>57</v>
-      </c>
-      <c r="L5">
-        <v>333</v>
-      </c>
-      <c r="M5">
-        <v>1.2</v>
-      </c>
       <c r="N5">
-        <v>14.8609335248312</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>1.875</v>
+      </c>
+      <c r="R5">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>3106410</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7305865+77</t>
-        </is>
-      </c>
-      <c r="C6">
+        <v>6203059</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7305674+76</t>
+        </is>
+      </c>
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
       <c r="E6">
-        <v>3.15</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>562</v>
+        <v>1.51</v>
       </c>
       <c r="G6">
-        <v>44.1</v>
+        <v>492</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>24.16</v>
       </c>
       <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>181</v>
+      </c>
+      <c r="K6">
+        <v>802</v>
+      </c>
+      <c r="L6">
         <v>594</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>396</v>
       </c>
-      <c r="K6">
-        <v>124</v>
-      </c>
-      <c r="L6">
-        <v>631</v>
-      </c>
-      <c r="M6">
-        <v>2.142857142857143</v>
-      </c>
       <c r="N6">
-        <v>7.423861903071232</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>1.875</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>3108210</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7306005+73</t>
-        </is>
-      </c>
-      <c r="C7">
+        <v>6203060</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7305817+74</t>
+        </is>
+      </c>
       <c r="D7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>79</v>
+        <v>4.55</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>983</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>72.8</v>
       </c>
       <c r="I7">
-        <v>596</v>
+        <v>75</v>
       </c>
       <c r="J7">
-        <v>794</v>
+        <v>142</v>
       </c>
       <c r="K7">
-        <v>59</v>
+        <v>652</v>
       </c>
       <c r="L7">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>297</v>
       </c>
       <c r="N7">
-        <v>54.6630740024479</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>3.75</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>3108210</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7308013+79</t>
-        </is>
-      </c>
-      <c r="C8">
+        <v>6203059</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7305819+79</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>11.13</v>
+      </c>
+      <c r="G8">
+        <v>1310</v>
+      </c>
+      <c r="H8">
+        <v>66.78</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>177</v>
+      </c>
+      <c r="K8">
+        <v>787</v>
+      </c>
+      <c r="L8">
+        <v>594</v>
+      </c>
+      <c r="M8">
+        <v>396</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>19.46</v>
-      </c>
-      <c r="F8">
-        <v>605</v>
-      </c>
-      <c r="G8">
-        <v>252.98</v>
-      </c>
-      <c r="H8">
-        <v>65</v>
-      </c>
-      <c r="I8">
-        <v>596</v>
-      </c>
-      <c r="J8">
-        <v>794</v>
-      </c>
-      <c r="K8">
-        <v>56</v>
-      </c>
-      <c r="L8">
-        <v>274</v>
-      </c>
-      <c r="M8">
-        <v>2.307692307692308</v>
-      </c>
-      <c r="N8">
-        <v>7.421031249066504</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>18</v>
-      </c>
       <c r="Q8">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>3108210</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7308014+79</t>
-        </is>
-      </c>
-      <c r="C9">
+        <v>6203059</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7305820+79</t>
+        </is>
+      </c>
+      <c r="D9">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2.86</v>
+      </c>
+      <c r="G9">
+        <v>1310</v>
+      </c>
+      <c r="H9">
+        <v>17.16</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>349</v>
+      </c>
+      <c r="K9">
+        <v>1553</v>
+      </c>
+      <c r="L9">
+        <v>594</v>
+      </c>
+      <c r="M9">
+        <v>396</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>1.58</v>
-      </c>
-      <c r="F9">
-        <v>605</v>
-      </c>
-      <c r="G9">
-        <v>20.54</v>
-      </c>
-      <c r="H9">
-        <v>65</v>
-      </c>
-      <c r="I9">
-        <v>596</v>
-      </c>
-      <c r="J9">
-        <v>794</v>
-      </c>
-      <c r="K9">
-        <v>196</v>
-      </c>
-      <c r="L9">
-        <v>960</v>
-      </c>
-      <c r="M9">
-        <v>2.307692307692308</v>
-      </c>
-      <c r="N9">
-        <v>7.421031249066504</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>18</v>
-      </c>
       <c r="Q9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3108210</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7455688+72</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>24</v>
+        <v>6203059</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7305823+73</t>
+        </is>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>10.7</v>
+        <v>30</v>
       </c>
       <c r="F10">
+        <v>4.05</v>
+      </c>
+      <c r="G10">
         <v>262</v>
       </c>
-      <c r="G10">
-        <v>256.8</v>
-      </c>
       <c r="H10">
-        <v>65</v>
+        <v>121.5</v>
       </c>
       <c r="I10">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="J10">
-        <v>794</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="L10">
-        <v>179</v>
+        <v>594</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>396</v>
       </c>
       <c r="N10">
-        <v>17.30473148224789</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -936,933 +965,984 @@
         <v>18</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>3108210</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>7455633+73</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>24</v>
+        <v>6203059</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7305824+73</t>
+        </is>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>24.57</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>786</v>
+        <v>2.56</v>
       </c>
       <c r="G11">
-        <v>196.56</v>
+        <v>262</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>76.8</v>
       </c>
       <c r="I11">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="J11">
-        <v>794</v>
+        <v>74</v>
       </c>
       <c r="K11">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="L11">
-        <v>354</v>
+        <v>594</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>396</v>
       </c>
       <c r="N11">
-        <v>4.944208994927968</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>3108210</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7455634+73</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>24</v>
+        <v>6203061</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7305832+73</t>
+        </is>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>1.6</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>786</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>12.8</v>
+        <v>262</v>
       </c>
       <c r="H12">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I12">
-        <v>596</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>794</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="L12">
-        <v>1386</v>
+        <v>198</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>297</v>
       </c>
       <c r="N12">
-        <v>4.944208994927968</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>3108210</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7306006+73</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>6</v>
+        <v>6203059</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7305833+73</t>
+        </is>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>3.15</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>79</v>
+        <v>2.02</v>
       </c>
       <c r="G13">
-        <v>63</v>
+        <v>655</v>
       </c>
       <c r="H13">
-        <v>65</v>
+        <v>24.24</v>
       </c>
       <c r="I13">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="J13">
-        <v>794</v>
+        <v>208</v>
       </c>
       <c r="K13">
-        <v>40</v>
+        <v>924</v>
       </c>
       <c r="L13">
-        <v>198</v>
+        <v>594</v>
       </c>
       <c r="M13">
-        <v>0.3</v>
+        <v>396</v>
       </c>
       <c r="N13">
-        <v>52.17838882051845</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>3108210</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7455687+72</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>24</v>
+        <v>6203059</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7305834+73</t>
+        </is>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>3.99</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>262</v>
+        <v>4.27</v>
       </c>
       <c r="G14">
-        <v>95.76000000000001</v>
+        <v>655</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>51.24</v>
       </c>
       <c r="I14">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="J14">
-        <v>794</v>
+        <v>143</v>
       </c>
       <c r="K14">
-        <v>60</v>
+        <v>636</v>
       </c>
       <c r="L14">
-        <v>293</v>
+        <v>594</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>396</v>
       </c>
       <c r="N14">
-        <v>17.30473148224789</v>
+        <v>2</v>
       </c>
       <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>19</v>
+      </c>
+      <c r="Q14">
+        <v>2.5</v>
+      </c>
+      <c r="R14">
         <v>7</v>
-      </c>
-      <c r="P14">
-        <v>18</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
         <v>6203059</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>7305834+73</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>30</v>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7305863+75</t>
+        </is>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>4.27</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>655</v>
+        <v>1.52</v>
       </c>
       <c r="G15">
-        <v>51.24</v>
+        <v>983</v>
       </c>
       <c r="H15">
+        <v>24.32</v>
+      </c>
+      <c r="I15">
         <v>80</v>
       </c>
-      <c r="I15">
+      <c r="J15">
+        <v>254</v>
+      </c>
+      <c r="K15">
+        <v>1130</v>
+      </c>
+      <c r="L15">
         <v>594</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>396</v>
       </c>
-      <c r="K15">
-        <v>143</v>
-      </c>
-      <c r="L15">
-        <v>636</v>
-      </c>
-      <c r="M15">
-        <v>2.5</v>
-      </c>
       <c r="N15">
-        <v>7.416313492391953</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>19</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3.75</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>6203059</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>7305819+79</t>
-        </is>
-      </c>
-      <c r="C16">
+        <v>3106410</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7305865+77</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>30</v>
       </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
       <c r="E16">
-        <v>11.13</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>1310</v>
+        <v>3.15</v>
       </c>
       <c r="G16">
-        <v>66.78</v>
+        <v>562</v>
       </c>
       <c r="H16">
-        <v>80</v>
+        <v>44.1</v>
       </c>
       <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>124</v>
+      </c>
+      <c r="K16">
+        <v>631</v>
+      </c>
+      <c r="L16">
         <v>594</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>396</v>
       </c>
-      <c r="K16">
-        <v>177</v>
-      </c>
-      <c r="L16">
-        <v>787</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
       <c r="N16">
-        <v>2.472104497463984</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>2.142857142857143</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
         <v>6203059</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>7305670+77</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>30</v>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7305867+76</t>
+        </is>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>1.62</v>
+        <v>48</v>
       </c>
       <c r="F17">
-        <v>524</v>
+        <v>1.58</v>
       </c>
       <c r="G17">
-        <v>24.3</v>
+        <v>328</v>
       </c>
       <c r="H17">
+        <v>75.84</v>
+      </c>
+      <c r="I17">
         <v>80</v>
       </c>
-      <c r="I17">
+      <c r="J17">
+        <v>83</v>
+      </c>
+      <c r="K17">
+        <v>370</v>
+      </c>
+      <c r="L17">
         <v>594</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>396</v>
       </c>
-      <c r="K17">
-        <v>186</v>
-      </c>
-      <c r="L17">
-        <v>825</v>
-      </c>
-      <c r="M17">
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>9.888417989855936</v>
-      </c>
       <c r="O17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1.25</v>
+      </c>
+      <c r="R17">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
         <v>6203059</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>7305673+76</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>30</v>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7305971+75</t>
+        </is>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>1.51</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>492</v>
+        <v>3.32</v>
       </c>
       <c r="G18">
-        <v>24.16</v>
+        <v>105</v>
       </c>
       <c r="H18">
+        <v>49.8</v>
+      </c>
+      <c r="I18">
         <v>80</v>
       </c>
-      <c r="I18">
+      <c r="J18">
+        <v>58</v>
+      </c>
+      <c r="K18">
+        <v>258</v>
+      </c>
+      <c r="L18">
         <v>594</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>396</v>
       </c>
-      <c r="K18">
-        <v>181</v>
-      </c>
-      <c r="L18">
-        <v>802</v>
-      </c>
-      <c r="M18">
-        <v>1.875</v>
-      </c>
       <c r="N18">
-        <v>9.903514811214496</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>0.4</v>
+      </c>
+      <c r="R18">
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
         <v>6203059</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>7305863+75</t>
-        </is>
-      </c>
-      <c r="C19">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7305972+75</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>3.13</v>
+      </c>
+      <c r="G19">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>46.95</v>
+      </c>
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19">
         <v>60</v>
       </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>1.52</v>
-      </c>
-      <c r="F19">
-        <v>983</v>
-      </c>
-      <c r="G19">
-        <v>24.32</v>
-      </c>
-      <c r="H19">
-        <v>80</v>
-      </c>
-      <c r="I19">
+      <c r="K19">
+        <v>266</v>
+      </c>
+      <c r="L19">
         <v>594</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>396</v>
       </c>
-      <c r="K19">
-        <v>254</v>
-      </c>
-      <c r="L19">
-        <v>1130</v>
-      </c>
-      <c r="M19">
-        <v>3.75</v>
-      </c>
       <c r="N19">
-        <v>4.946725131821061</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>0.4</v>
+      </c>
+      <c r="R19">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>6203059</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>7305669+77</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>30</v>
+        <v>6203061</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7305977+74</t>
+        </is>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>7.62</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>524</v>
+        <v>1.54</v>
       </c>
       <c r="G20">
-        <v>114.3</v>
+        <v>175</v>
       </c>
       <c r="H20">
-        <v>80</v>
+        <v>55.44</v>
       </c>
       <c r="I20">
-        <v>594</v>
+        <v>50</v>
       </c>
       <c r="J20">
-        <v>396</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="L20">
-        <v>381</v>
+        <v>198</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>297</v>
       </c>
       <c r="N20">
-        <v>9.888417989855936</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R20">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>6203059</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>7343137+72</t>
-        </is>
-      </c>
-      <c r="C21">
+        <v>3108210</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7306005+73</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+      <c r="G21">
+        <v>79</v>
+      </c>
+      <c r="H21">
         <v>30</v>
       </c>
-      <c r="D21">
-        <v>32</v>
-      </c>
-      <c r="E21">
-        <v>6.74</v>
-      </c>
-      <c r="F21">
-        <v>246</v>
-      </c>
-      <c r="G21">
-        <v>215.68</v>
-      </c>
-      <c r="H21">
-        <v>80</v>
-      </c>
       <c r="I21">
-        <v>594</v>
+        <v>65</v>
       </c>
       <c r="J21">
-        <v>396</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="L21">
-        <v>190</v>
+        <v>596</v>
       </c>
       <c r="M21">
-        <v>0.9375</v>
+        <v>794</v>
       </c>
       <c r="N21">
-        <v>17.33115091962537</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="P21">
         <v>17</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="R21">
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>6203059</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>7305820+79</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>30</v>
+        <v>3108210</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7306006+73</t>
+        </is>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>2.86</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>1310</v>
+        <v>3.15</v>
       </c>
       <c r="G22">
-        <v>17.16</v>
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I22">
-        <v>594</v>
+        <v>65</v>
       </c>
       <c r="J22">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="L22">
-        <v>1553</v>
+        <v>596</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>794</v>
       </c>
       <c r="N22">
-        <v>2.472104497463984</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="P22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="R22">
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>6203059</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>7305674+76</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>30</v>
+        <v>6203060</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7306009+75</t>
+        </is>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>1.51</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>492</v>
+        <v>3.62</v>
       </c>
       <c r="G23">
-        <v>24.16</v>
+        <v>121</v>
       </c>
       <c r="H23">
-        <v>80</v>
+        <v>47.06</v>
       </c>
       <c r="I23">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J23">
+        <v>62</v>
+      </c>
+      <c r="K23">
+        <v>285</v>
+      </c>
+      <c r="L23">
         <v>396</v>
       </c>
-      <c r="K23">
-        <v>181</v>
-      </c>
-      <c r="L23">
-        <v>802</v>
-      </c>
       <c r="M23">
-        <v>1.875</v>
+        <v>297</v>
       </c>
       <c r="N23">
-        <v>9.903514811214496</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="R23">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>6203059</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>7305824+73</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>30</v>
+        <v>6203060</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7306010+75</t>
+        </is>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>2.56</v>
+        <v>13</v>
       </c>
       <c r="F24">
-        <v>262</v>
+        <v>2.13</v>
       </c>
       <c r="G24">
-        <v>76.8</v>
+        <v>121</v>
       </c>
       <c r="H24">
-        <v>80</v>
+        <v>27.69</v>
       </c>
       <c r="I24">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J24">
+        <v>81</v>
+      </c>
+      <c r="K24">
+        <v>371</v>
+      </c>
+      <c r="L24">
         <v>396</v>
       </c>
-      <c r="K24">
-        <v>74</v>
-      </c>
-      <c r="L24">
-        <v>328</v>
-      </c>
       <c r="M24">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="N24">
-        <v>17.30473148224789</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P24">
         <v>18</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="R24">
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>6203059</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>7326393+74</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>30</v>
+        <v>6203060</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7306013+73</t>
+        </is>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>1.75</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>655</v>
+        <v>1.53</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H25">
-        <v>80</v>
+        <v>24.48</v>
       </c>
       <c r="I25">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J25">
+        <v>78</v>
+      </c>
+      <c r="K25">
+        <v>357</v>
+      </c>
+      <c r="L25">
         <v>396</v>
       </c>
-      <c r="K25">
-        <v>223</v>
-      </c>
-      <c r="L25">
-        <v>993</v>
-      </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>297</v>
       </c>
       <c r="N25">
-        <v>7.416313492391953</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>0.375</v>
+      </c>
+      <c r="R25">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>6203059</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>7305833+73</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>30</v>
+        <v>6203060</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7306014+73</t>
+        </is>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>2.02</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>655</v>
+        <v>1.7</v>
       </c>
       <c r="G26">
-        <v>24.24</v>
+        <v>99</v>
       </c>
       <c r="H26">
-        <v>80</v>
+        <v>27.2</v>
       </c>
       <c r="I26">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J26">
+        <v>74</v>
+      </c>
+      <c r="K26">
+        <v>339</v>
+      </c>
+      <c r="L26">
         <v>396</v>
       </c>
-      <c r="K26">
-        <v>208</v>
-      </c>
-      <c r="L26">
-        <v>924</v>
-      </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>297</v>
       </c>
       <c r="N26">
-        <v>7.416313492391953</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>0.375</v>
+      </c>
+      <c r="R26">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
         <v>6203059</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>7306017+79</t>
         </is>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>9</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.51</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>175</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>13.59</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>80</v>
       </c>
-      <c r="I27">
+      <c r="J27">
+        <v>144</v>
+      </c>
+      <c r="K27">
+        <v>638</v>
+      </c>
+      <c r="L27">
         <v>594</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>396</v>
       </c>
-      <c r="K27">
-        <v>144</v>
-      </c>
-      <c r="L27">
-        <v>638</v>
-      </c>
-      <c r="M27">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="N27">
-        <v>27.24504479552387</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <v>11</v>
@@ -1871,53 +1951,56 @@
         <v>19</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
         <v>6203059</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>7306018+79</t>
         </is>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>9</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6.62</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>175</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>59.58</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>80</v>
       </c>
-      <c r="I28">
+      <c r="J28">
+        <v>69</v>
+      </c>
+      <c r="K28">
+        <v>305</v>
+      </c>
+      <c r="L28">
         <v>594</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>396</v>
       </c>
-      <c r="K28">
-        <v>69</v>
-      </c>
-      <c r="L28">
-        <v>305</v>
-      </c>
-      <c r="M28">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="N28">
-        <v>27.24504479552387</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>11</v>
@@ -1926,1932 +2009,2040 @@
         <v>19</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R28">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>6203059</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>7313982+31</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>6</v>
+        <v>6203060</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7306023+78</t>
+        </is>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>9.67</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>131</v>
+        <v>2.13</v>
       </c>
       <c r="G29">
-        <v>116.04</v>
+        <v>524</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>31.95</v>
       </c>
       <c r="I29">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J29">
+        <v>157</v>
+      </c>
+      <c r="K29">
+        <v>719</v>
+      </c>
+      <c r="L29">
         <v>396</v>
       </c>
-      <c r="K29">
-        <v>43</v>
-      </c>
-      <c r="L29">
-        <v>189</v>
-      </c>
       <c r="M29">
-        <v>0.5</v>
+        <v>297</v>
       </c>
       <c r="N29">
-        <v>34.60946296449578</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q29">
         <v>2</v>
       </c>
+      <c r="R29">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>6203059</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>7305867+76</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>60</v>
+        <v>6203060</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7306024+78</t>
+        </is>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>1.58</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>328</v>
+        <v>2.15</v>
       </c>
       <c r="G30">
-        <v>75.84</v>
+        <v>524</v>
       </c>
       <c r="H30">
-        <v>80</v>
+        <v>32.25</v>
       </c>
       <c r="I30">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J30">
+        <v>156</v>
+      </c>
+      <c r="K30">
+        <v>715</v>
+      </c>
+      <c r="L30">
         <v>396</v>
       </c>
-      <c r="K30">
-        <v>83</v>
-      </c>
-      <c r="L30">
-        <v>370</v>
-      </c>
       <c r="M30">
-        <v>1.25</v>
+        <v>297</v>
       </c>
       <c r="N30">
-        <v>14.85527221682174</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
+      <c r="R30">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>6203059</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>7305971+75</t>
-        </is>
-      </c>
-      <c r="C31">
+        <v>6203061</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7306025+75</t>
+        </is>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
       <c r="E31">
-        <v>3.32</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>105</v>
+        <v>1.85</v>
       </c>
       <c r="G31">
-        <v>49.8</v>
+        <v>79</v>
       </c>
       <c r="H31">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I31">
-        <v>594</v>
+        <v>50</v>
       </c>
       <c r="J31">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="L31">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="M31">
-        <v>0.4</v>
+        <v>297</v>
       </c>
       <c r="N31">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="R31">
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>6203059</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>7305972+75</t>
-        </is>
-      </c>
-      <c r="C32">
+        <v>6203061</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7306026+75</t>
+        </is>
+      </c>
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
       <c r="E32">
-        <v>3.13</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>105</v>
+        <v>1.62</v>
       </c>
       <c r="G32">
-        <v>46.95</v>
+        <v>79</v>
       </c>
       <c r="H32">
-        <v>80</v>
+        <v>32.40000000000001</v>
       </c>
       <c r="I32">
-        <v>594</v>
+        <v>50</v>
       </c>
       <c r="J32">
-        <v>396</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="L32">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="M32">
-        <v>0.4</v>
+        <v>297</v>
       </c>
       <c r="N32">
-        <v>42.10597832035507</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="R32">
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>6203059</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>7343138+74</t>
-        </is>
-      </c>
-      <c r="C33">
+        <v>6203061</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>7306033+77</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
         <v>30</v>
       </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>1.96</v>
-      </c>
       <c r="F33">
-        <v>246</v>
+        <v>2.53</v>
       </c>
       <c r="G33">
-        <v>62.72</v>
+        <v>53</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>75.89999999999999</v>
       </c>
       <c r="I33">
-        <v>594</v>
+        <v>50</v>
       </c>
       <c r="J33">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="K33">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="L33">
-        <v>352</v>
+        <v>198</v>
       </c>
       <c r="M33">
-        <v>0.9375</v>
+        <v>297</v>
       </c>
       <c r="N33">
-        <v>19.80702962242899</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="P33">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="R33">
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>6203059</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>7305823+73</t>
-        </is>
-      </c>
-      <c r="C34">
+        <v>6203061</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>7306034+77</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
         <v>30</v>
       </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34">
-        <v>4.05</v>
-      </c>
       <c r="F34">
-        <v>262</v>
+        <v>2.11</v>
       </c>
       <c r="G34">
-        <v>121.5</v>
+        <v>53</v>
       </c>
       <c r="H34">
-        <v>80</v>
+        <v>63.3</v>
       </c>
       <c r="I34">
-        <v>594</v>
+        <v>50</v>
       </c>
       <c r="J34">
-        <v>396</v>
+        <v>29</v>
       </c>
       <c r="K34">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="L34">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="N34">
-        <v>17.30473148224789</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="P34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="R34">
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>6203059</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>7326394+74</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>30</v>
+        <v>6203060</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7306037+79</t>
+        </is>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>2.96</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>655</v>
+        <v>3.82</v>
       </c>
       <c r="G35">
-        <v>35.52</v>
+        <v>79</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>76.39999999999999</v>
       </c>
       <c r="I35">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J35">
+        <v>39</v>
+      </c>
+      <c r="K35">
+        <v>180</v>
+      </c>
+      <c r="L35">
         <v>396</v>
       </c>
-      <c r="K35">
-        <v>172</v>
-      </c>
-      <c r="L35">
-        <v>763</v>
-      </c>
       <c r="M35">
-        <v>2.5</v>
+        <v>297</v>
       </c>
       <c r="N35">
-        <v>7.416313492391953</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="P35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="R35">
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>6203059</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>7313981+31</t>
-        </is>
-      </c>
-      <c r="C36">
+        <v>6203060</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7306038+30</t>
+        </is>
+      </c>
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="D36">
-        <v>12</v>
-      </c>
       <c r="E36">
-        <v>5.68</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>131</v>
+        <v>2.28</v>
       </c>
       <c r="G36">
-        <v>68.16</v>
+        <v>79</v>
       </c>
       <c r="H36">
-        <v>80</v>
+        <v>45.59999999999999</v>
       </c>
       <c r="I36">
-        <v>594</v>
+        <v>75</v>
       </c>
       <c r="J36">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>234</v>
+      </c>
+      <c r="L36">
         <v>396</v>
       </c>
-      <c r="K36">
-        <v>55</v>
-      </c>
-      <c r="L36">
-        <v>246</v>
-      </c>
       <c r="M36">
-        <v>0.5</v>
+        <v>297</v>
       </c>
       <c r="N36">
-        <v>34.60946296449578</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="R36">
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>6203060</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>7305667+74</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>12</v>
+        <v>3108210</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>7308013+79</t>
+        </is>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>1.51</v>
+        <v>13</v>
       </c>
       <c r="F37">
-        <v>70</v>
+        <v>19.46</v>
       </c>
       <c r="G37">
-        <v>67.95</v>
+        <v>605</v>
       </c>
       <c r="H37">
-        <v>75</v>
+        <v>252.98</v>
       </c>
       <c r="I37">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="J37">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="L37">
-        <v>180</v>
+        <v>596</v>
       </c>
       <c r="M37">
-        <v>0.2666666666666667</v>
+        <v>794</v>
       </c>
       <c r="N37">
-        <v>59.44373409932481</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>2.307692307692308</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>6203060</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>7306023+78</t>
-        </is>
-      </c>
-      <c r="C38">
+        <v>3108210</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7308014+79</t>
+        </is>
+      </c>
+      <c r="D38">
         <v>30</v>
       </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
       <c r="E38">
-        <v>2.13</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <v>524</v>
+        <v>1.58</v>
       </c>
       <c r="G38">
-        <v>31.95</v>
+        <v>605</v>
       </c>
       <c r="H38">
-        <v>75</v>
+        <v>20.54</v>
       </c>
       <c r="I38">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="J38">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="K38">
-        <v>157</v>
+        <v>960</v>
       </c>
       <c r="L38">
-        <v>719</v>
+        <v>596</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>794</v>
       </c>
       <c r="N38">
-        <v>9.888417989855936</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>2.307692307692308</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>6203060</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>7306024+78</t>
-        </is>
-      </c>
-      <c r="C39">
+        <v>6203061</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>7313474+73</t>
+        </is>
+      </c>
+      <c r="D39">
         <v>30</v>
       </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
       <c r="E39">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>524</v>
+        <v>2.82</v>
       </c>
       <c r="G39">
-        <v>32.25</v>
+        <v>983</v>
       </c>
       <c r="H39">
-        <v>75</v>
+        <v>22.56</v>
       </c>
       <c r="I39">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="J39">
+        <v>209</v>
+      </c>
+      <c r="K39">
+        <v>1162</v>
+      </c>
+      <c r="L39">
+        <v>198</v>
+      </c>
+      <c r="M39">
         <v>297</v>
       </c>
-      <c r="K39">
-        <v>156</v>
-      </c>
-      <c r="L39">
-        <v>715</v>
-      </c>
-      <c r="M39">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
         <v>2</v>
       </c>
-      <c r="N39">
-        <v>9.888417989855936</v>
-      </c>
-      <c r="O39">
+      <c r="P39">
+        <v>19</v>
+      </c>
+      <c r="Q39">
+        <v>3.75</v>
+      </c>
+      <c r="R39">
         <v>4</v>
-      </c>
-      <c r="P39">
-        <v>20</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>6203060</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>7326409+74</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>30</v>
+        <v>6203059</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7313981+31</t>
+        </is>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>1.87</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>715</v>
+        <v>5.68</v>
       </c>
       <c r="G40">
-        <v>20.57</v>
+        <v>131</v>
       </c>
       <c r="H40">
-        <v>75</v>
+        <v>68.16</v>
       </c>
       <c r="I40">
+        <v>80</v>
+      </c>
+      <c r="J40">
+        <v>55</v>
+      </c>
+      <c r="K40">
+        <v>246</v>
+      </c>
+      <c r="L40">
+        <v>594</v>
+      </c>
+      <c r="M40">
         <v>396</v>
       </c>
-      <c r="J40">
-        <v>297</v>
-      </c>
-      <c r="K40">
-        <v>228</v>
-      </c>
-      <c r="L40">
-        <v>1046</v>
-      </c>
-      <c r="M40">
-        <v>2.727272727272727</v>
-      </c>
       <c r="N40">
-        <v>4.947354166044335</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P40">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="R40">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>6203060</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>7326825+72</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>30</v>
+        <v>6203059</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>7313982+31</t>
+        </is>
       </c>
       <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>9.67</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>116.04</v>
+      </c>
+      <c r="I41">
+        <v>80</v>
+      </c>
+      <c r="J41">
+        <v>43</v>
+      </c>
+      <c r="K41">
+        <v>189</v>
+      </c>
+      <c r="L41">
+        <v>594</v>
+      </c>
+      <c r="M41">
+        <v>396</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>14</v>
+      </c>
+      <c r="P41">
         <v>18</v>
       </c>
-      <c r="E41">
-        <v>1.68</v>
-      </c>
-      <c r="F41">
-        <v>437</v>
-      </c>
-      <c r="G41">
-        <v>30.24</v>
-      </c>
-      <c r="H41">
-        <v>75</v>
-      </c>
-      <c r="I41">
-        <v>396</v>
-      </c>
-      <c r="J41">
-        <v>297</v>
-      </c>
-      <c r="K41">
-        <v>147</v>
-      </c>
-      <c r="L41">
-        <v>675</v>
-      </c>
-      <c r="M41">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="N41">
-        <v>9.895966400535217</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>17</v>
-      </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="R41">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>6203060</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>7305817+74</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>60</v>
+        <v>6203059</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>7326393+74</t>
+        </is>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>4.55</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>983</v>
+        <v>1.75</v>
       </c>
       <c r="G42">
-        <v>72.8</v>
+        <v>655</v>
       </c>
       <c r="H42">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I42">
+        <v>80</v>
+      </c>
+      <c r="J42">
+        <v>223</v>
+      </c>
+      <c r="K42">
+        <v>993</v>
+      </c>
+      <c r="L42">
+        <v>594</v>
+      </c>
+      <c r="M42">
         <v>396</v>
       </c>
-      <c r="J42">
-        <v>297</v>
-      </c>
-      <c r="K42">
-        <v>142</v>
-      </c>
-      <c r="L42">
-        <v>652</v>
-      </c>
-      <c r="M42">
-        <v>3.75</v>
-      </c>
       <c r="N42">
-        <v>4.946725131821061</v>
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>19</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>2.5</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>6203060</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>7306013+73</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>6</v>
+        <v>6203059</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7326394+74</t>
+        </is>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>1.53</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>99</v>
+        <v>2.96</v>
       </c>
       <c r="G43">
-        <v>24.48</v>
+        <v>655</v>
       </c>
       <c r="H43">
-        <v>75</v>
+        <v>35.52</v>
       </c>
       <c r="I43">
+        <v>80</v>
+      </c>
+      <c r="J43">
+        <v>172</v>
+      </c>
+      <c r="K43">
+        <v>763</v>
+      </c>
+      <c r="L43">
+        <v>594</v>
+      </c>
+      <c r="M43">
         <v>396</v>
       </c>
-      <c r="J43">
-        <v>297</v>
-      </c>
-      <c r="K43">
-        <v>78</v>
-      </c>
-      <c r="L43">
-        <v>357</v>
-      </c>
-      <c r="M43">
-        <v>0.375</v>
-      </c>
       <c r="N43">
-        <v>44.83755943491929</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>2.5</v>
+      </c>
+      <c r="R43">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
         <v>6203060</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>7306037+79</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>6</v>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>7326409+74</t>
+        </is>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>3.82</v>
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>79</v>
+        <v>1.87</v>
       </c>
       <c r="G44">
-        <v>76.39999999999999</v>
+        <v>715</v>
       </c>
       <c r="H44">
+        <v>20.57</v>
+      </c>
+      <c r="I44">
         <v>75</v>
       </c>
-      <c r="I44">
+      <c r="J44">
+        <v>228</v>
+      </c>
+      <c r="K44">
+        <v>1046</v>
+      </c>
+      <c r="L44">
         <v>396</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>297</v>
       </c>
-      <c r="K44">
-        <v>39</v>
-      </c>
-      <c r="L44">
-        <v>180</v>
-      </c>
-      <c r="M44">
-        <v>0.3</v>
-      </c>
       <c r="N44">
-        <v>54.6630740024479</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>2.727272727272727</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
         <v>6203060</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>7306009+75</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>6</v>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>7326825+72</t>
+        </is>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E45">
-        <v>3.62</v>
+        <v>18</v>
       </c>
       <c r="F45">
-        <v>121</v>
+        <v>1.68</v>
       </c>
       <c r="G45">
-        <v>47.06</v>
+        <v>437</v>
       </c>
       <c r="H45">
+        <v>30.24</v>
+      </c>
+      <c r="I45">
         <v>75</v>
       </c>
-      <c r="I45">
+      <c r="J45">
+        <v>147</v>
+      </c>
+      <c r="K45">
+        <v>675</v>
+      </c>
+      <c r="L45">
         <v>396</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>297</v>
       </c>
-      <c r="K45">
-        <v>62</v>
-      </c>
-      <c r="L45">
-        <v>285</v>
-      </c>
-      <c r="M45">
-        <v>0.4615384615384616</v>
-      </c>
       <c r="N45">
-        <v>37.10515624533251</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="R45">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
         <v>6203060</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>7306010+75</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>6</v>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7326826+72</t>
+        </is>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E46">
-        <v>2.13</v>
+        <v>18</v>
       </c>
       <c r="F46">
-        <v>121</v>
+        <v>1.69</v>
       </c>
       <c r="G46">
-        <v>27.69</v>
+        <v>437</v>
       </c>
       <c r="H46">
+        <v>30.42</v>
+      </c>
+      <c r="I46">
         <v>75</v>
       </c>
-      <c r="I46">
+      <c r="J46">
+        <v>147</v>
+      </c>
+      <c r="K46">
+        <v>673</v>
+      </c>
+      <c r="L46">
         <v>396</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>297</v>
       </c>
-      <c r="K46">
-        <v>81</v>
-      </c>
-      <c r="L46">
-        <v>371</v>
-      </c>
-      <c r="M46">
-        <v>0.4615384615384616</v>
-      </c>
       <c r="N46">
-        <v>37.10515624533251</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="R46">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>6203060</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>7326826+72</t>
-        </is>
-      </c>
-      <c r="C47">
+        <v>6203061</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>7328209+73</t>
+        </is>
+      </c>
+      <c r="D47">
         <v>30</v>
       </c>
-      <c r="D47">
-        <v>18</v>
-      </c>
       <c r="E47">
-        <v>1.69</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>437</v>
+        <v>1.87</v>
       </c>
       <c r="G47">
-        <v>30.42</v>
+        <v>492</v>
       </c>
       <c r="H47">
-        <v>75</v>
+        <v>29.92</v>
       </c>
       <c r="I47">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="J47">
+        <v>128</v>
+      </c>
+      <c r="K47">
+        <v>714</v>
+      </c>
+      <c r="L47">
+        <v>198</v>
+      </c>
+      <c r="M47">
         <v>297</v>
       </c>
-      <c r="K47">
-        <v>147</v>
-      </c>
-      <c r="L47">
-        <v>673</v>
-      </c>
-      <c r="M47">
-        <v>1.666666666666667</v>
-      </c>
       <c r="N47">
-        <v>9.895966400535217</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>1.875</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>6203060</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>7306014+73</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>6</v>
+        <v>6203061</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7328210+73</t>
+        </is>
       </c>
       <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
         <v>16</v>
       </c>
-      <c r="E48">
-        <v>1.7</v>
-      </c>
       <c r="F48">
-        <v>99</v>
+        <v>1.76</v>
       </c>
       <c r="G48">
-        <v>27.2</v>
+        <v>492</v>
       </c>
       <c r="H48">
-        <v>75</v>
+        <v>28.16</v>
       </c>
       <c r="I48">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="J48">
+        <v>132</v>
+      </c>
+      <c r="K48">
+        <v>736</v>
+      </c>
+      <c r="L48">
+        <v>198</v>
+      </c>
+      <c r="M48">
         <v>297</v>
       </c>
-      <c r="K48">
-        <v>74</v>
-      </c>
-      <c r="L48">
-        <v>339</v>
-      </c>
-      <c r="M48">
-        <v>0.375</v>
-      </c>
       <c r="N48">
-        <v>44.83755943491929</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>1.875</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>6203060</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7306038+30</t>
-        </is>
-      </c>
-      <c r="C49">
+        <v>6203062</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>7332421+76</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>3.45</v>
+      </c>
+      <c r="G49">
+        <v>1572</v>
+      </c>
+      <c r="H49">
+        <v>17.25</v>
+      </c>
+      <c r="I49">
+        <v>70</v>
+      </c>
+      <c r="J49">
+        <v>357</v>
+      </c>
+      <c r="K49">
+        <v>1692</v>
+      </c>
+      <c r="L49">
+        <v>594</v>
+      </c>
+      <c r="M49">
+        <v>396</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>15</v>
+      </c>
+      <c r="Q49">
         <v>6</v>
       </c>
-      <c r="D49">
-        <v>20</v>
-      </c>
-      <c r="E49">
-        <v>2.28</v>
-      </c>
-      <c r="F49">
-        <v>79</v>
-      </c>
-      <c r="G49">
-        <v>45.59999999999999</v>
-      </c>
-      <c r="H49">
-        <v>75</v>
-      </c>
-      <c r="I49">
-        <v>396</v>
-      </c>
-      <c r="J49">
-        <v>297</v>
-      </c>
-      <c r="K49">
-        <v>51</v>
-      </c>
-      <c r="L49">
-        <v>234</v>
-      </c>
-      <c r="M49">
-        <v>0.3</v>
-      </c>
-      <c r="N49">
-        <v>54.6630740024479</v>
-      </c>
-      <c r="O49">
-        <v>22</v>
-      </c>
-      <c r="P49">
-        <v>17</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
+      <c r="R49">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>6203061</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>7306034+77</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>6</v>
+        <v>6203062</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>7332422+76</t>
+        </is>
       </c>
       <c r="D50">
         <v>30</v>
       </c>
       <c r="E50">
-        <v>2.11</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>53</v>
+        <v>1.57</v>
       </c>
       <c r="G50">
-        <v>63.3</v>
+        <v>1572</v>
       </c>
       <c r="H50">
-        <v>50</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="I50">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="J50">
-        <v>297</v>
+        <v>529</v>
       </c>
       <c r="K50">
-        <v>29</v>
+        <v>2508</v>
       </c>
       <c r="L50">
-        <v>161</v>
+        <v>594</v>
       </c>
       <c r="M50">
-        <v>0.2</v>
+        <v>396</v>
       </c>
       <c r="N50">
-        <v>77.51274216284972</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>6203061</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>7328209+73</t>
-        </is>
-      </c>
-      <c r="C51">
+        <v>6203059</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7343137+72</t>
+        </is>
+      </c>
+      <c r="D51">
         <v>30</v>
       </c>
-      <c r="D51">
-        <v>16</v>
-      </c>
       <c r="E51">
-        <v>1.87</v>
+        <v>32</v>
       </c>
       <c r="F51">
-        <v>492</v>
+        <v>6.74</v>
       </c>
       <c r="G51">
-        <v>29.92</v>
+        <v>246</v>
       </c>
       <c r="H51">
-        <v>50</v>
+        <v>215.68</v>
       </c>
       <c r="I51">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="J51">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L51">
-        <v>714</v>
+        <v>594</v>
       </c>
       <c r="M51">
-        <v>1.875</v>
+        <v>396</v>
       </c>
       <c r="N51">
-        <v>9.903514811214496</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0.9375</v>
+      </c>
+      <c r="R51">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>6203061</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>7305977+74</t>
-        </is>
-      </c>
-      <c r="C52">
-        <v>24</v>
+        <v>6203059</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>7343138+74</t>
+        </is>
       </c>
       <c r="D52">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E52">
-        <v>1.54</v>
+        <v>32</v>
       </c>
       <c r="F52">
-        <v>175</v>
+        <v>1.96</v>
       </c>
       <c r="G52">
-        <v>55.44</v>
+        <v>246</v>
       </c>
       <c r="H52">
-        <v>50</v>
+        <v>62.72</v>
       </c>
       <c r="I52">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="J52">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="L52">
-        <v>313</v>
+        <v>594</v>
       </c>
       <c r="M52">
-        <v>0.6666666666666666</v>
+        <v>396</v>
       </c>
       <c r="N52">
-        <v>24.76822254138534</v>
+        <v>2</v>
       </c>
       <c r="O52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P52">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0.9375</v>
+      </c>
+      <c r="R52">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>6203061</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>7305832+73</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>30</v>
+        <v>3103147</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>7346592+72</t>
+        </is>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="E53">
-        <v>1.5</v>
+        <v>64</v>
       </c>
       <c r="F53">
-        <v>262</v>
+        <v>1.99</v>
       </c>
       <c r="G53">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="H53">
+        <v>127.36</v>
+      </c>
+      <c r="I53">
         <v>50</v>
       </c>
-      <c r="I53">
+      <c r="J53">
+        <v>108</v>
+      </c>
+      <c r="K53">
+        <v>599</v>
+      </c>
+      <c r="L53">
         <v>198</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>297</v>
       </c>
-      <c r="K53">
-        <v>76</v>
-      </c>
-      <c r="L53">
-        <v>425</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
       <c r="N53">
-        <v>17.30473148224789</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>5.625</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
         <v>6203061</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>7306026+75</t>
-        </is>
-      </c>
-      <c r="C54">
-        <v>6</v>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7346813+73</t>
+        </is>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E54">
-        <v>1.62</v>
+        <v>30</v>
       </c>
       <c r="F54">
-        <v>79</v>
+        <v>2.45</v>
       </c>
       <c r="G54">
-        <v>32.40000000000001</v>
+        <v>524</v>
       </c>
       <c r="H54">
+        <v>73.5</v>
+      </c>
+      <c r="I54">
         <v>50</v>
       </c>
-      <c r="I54">
+      <c r="J54">
+        <v>84</v>
+      </c>
+      <c r="K54">
+        <v>470</v>
+      </c>
+      <c r="L54">
         <v>198</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>297</v>
       </c>
-      <c r="K54">
-        <v>49</v>
-      </c>
-      <c r="L54">
-        <v>275</v>
-      </c>
-      <c r="M54">
-        <v>0.3</v>
-      </c>
       <c r="N54">
-        <v>52.17838882051845</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>6203061</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>7306033+77</t>
-        </is>
-      </c>
-      <c r="C55">
-        <v>6</v>
+        <v>3103147</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7348808+73</t>
+        </is>
       </c>
       <c r="D55">
         <v>30</v>
       </c>
       <c r="E55">
-        <v>2.53</v>
+        <v>18</v>
       </c>
       <c r="F55">
-        <v>53</v>
+        <v>2.58</v>
       </c>
       <c r="G55">
-        <v>75.89999999999999</v>
+        <v>437</v>
       </c>
       <c r="H55">
+        <v>46.44</v>
+      </c>
+      <c r="I55">
         <v>50</v>
       </c>
-      <c r="I55">
+      <c r="J55">
+        <v>97</v>
+      </c>
+      <c r="K55">
+        <v>540</v>
+      </c>
+      <c r="L55">
         <v>198</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>297</v>
       </c>
-      <c r="K55">
-        <v>26</v>
-      </c>
-      <c r="L55">
-        <v>147</v>
-      </c>
-      <c r="M55">
-        <v>0.2</v>
-      </c>
       <c r="N55">
-        <v>77.51274216284972</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="R55">
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
         <v>6203061</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>7328210+73</t>
-        </is>
-      </c>
-      <c r="C56">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7355005+72</t>
+        </is>
+      </c>
+      <c r="D56">
         <v>30</v>
       </c>
-      <c r="D56">
-        <v>16</v>
-      </c>
       <c r="E56">
-        <v>1.76</v>
+        <v>36</v>
       </c>
       <c r="F56">
-        <v>492</v>
+        <v>1.67</v>
       </c>
       <c r="G56">
-        <v>28.16</v>
+        <v>219</v>
       </c>
       <c r="H56">
+        <v>60.12</v>
+      </c>
+      <c r="I56">
         <v>50</v>
       </c>
-      <c r="I56">
+      <c r="J56">
+        <v>60</v>
+      </c>
+      <c r="K56">
+        <v>336</v>
+      </c>
+      <c r="L56">
         <v>198</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>297</v>
       </c>
-      <c r="K56">
-        <v>132</v>
-      </c>
-      <c r="L56">
-        <v>736</v>
-      </c>
-      <c r="M56">
-        <v>1.875</v>
-      </c>
       <c r="N56">
-        <v>9.903514811214496</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P56">
+        <v>17</v>
+      </c>
+      <c r="Q56">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="R56">
         <v>19</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
         <v>6203061</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>7306025+75</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>6</v>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>7355006+72</t>
+        </is>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>1.85</v>
+        <v>36</v>
       </c>
       <c r="F57">
-        <v>79</v>
+        <v>3.08</v>
       </c>
       <c r="G57">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="H57">
+        <v>110.88</v>
+      </c>
+      <c r="I57">
         <v>50</v>
       </c>
-      <c r="I57">
+      <c r="J57">
+        <v>44</v>
+      </c>
+      <c r="K57">
+        <v>247</v>
+      </c>
+      <c r="L57">
         <v>198</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>297</v>
       </c>
-      <c r="K57">
-        <v>46</v>
-      </c>
-      <c r="L57">
-        <v>257</v>
-      </c>
-      <c r="M57">
-        <v>0.3</v>
-      </c>
       <c r="N57">
-        <v>52.17838882051845</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="R57">
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>6203061</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>7355006+72</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>30</v>
+        <v>3108210</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>7455633+73</t>
+        </is>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>3.08</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>219</v>
+        <v>24.57</v>
       </c>
       <c r="G58">
-        <v>110.88</v>
+        <v>786</v>
       </c>
       <c r="H58">
-        <v>50</v>
+        <v>196.56</v>
       </c>
       <c r="I58">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="J58">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="L58">
-        <v>247</v>
+        <v>596</v>
       </c>
       <c r="M58">
-        <v>0.8333333333333334</v>
+        <v>794</v>
       </c>
       <c r="N58">
-        <v>19.83722326514611</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>6203061</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>7346813+73</t>
-        </is>
-      </c>
-      <c r="C59">
-        <v>60</v>
+        <v>3108210</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>7455634+73</t>
+        </is>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E59">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>524</v>
+        <v>1.6</v>
       </c>
       <c r="G59">
-        <v>73.5</v>
+        <v>786</v>
       </c>
       <c r="H59">
-        <v>50</v>
+        <v>12.8</v>
       </c>
       <c r="I59">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="J59">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K59">
-        <v>84</v>
+        <v>1386</v>
       </c>
       <c r="L59">
-        <v>470</v>
+        <v>596</v>
       </c>
       <c r="M59">
+        <v>794</v>
+      </c>
+      <c r="N59">
         <v>2</v>
       </c>
-      <c r="N59">
-        <v>7.416313492391953</v>
-      </c>
       <c r="O59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P59">
         <v>15</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>6203061</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>7313474+73</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>30</v>
+        <v>3108210</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>7455687+72</t>
+        </is>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>2.82</v>
+        <v>24</v>
       </c>
       <c r="F60">
-        <v>983</v>
+        <v>3.99</v>
       </c>
       <c r="G60">
-        <v>22.56</v>
+        <v>262</v>
       </c>
       <c r="H60">
-        <v>50</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="I60">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="J60">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="K60">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="L60">
-        <v>1162</v>
+        <v>596</v>
       </c>
       <c r="M60">
-        <v>3.75</v>
+        <v>794</v>
       </c>
       <c r="N60">
-        <v>4.946725131821061</v>
+        <v>3</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q60">
         <v>1</v>
+      </c>
+      <c r="R60">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>6203061</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>7355005+72</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>30</v>
+        <v>3108210</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>7455688+72</t>
+        </is>
       </c>
       <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>24</v>
+      </c>
+      <c r="F61">
+        <v>10.7</v>
+      </c>
+      <c r="G61">
+        <v>262</v>
+      </c>
+      <c r="H61">
+        <v>256.8</v>
+      </c>
+      <c r="I61">
+        <v>65</v>
+      </c>
+      <c r="J61">
         <v>36</v>
       </c>
-      <c r="E61">
-        <v>1.67</v>
-      </c>
-      <c r="F61">
-        <v>219</v>
-      </c>
-      <c r="G61">
-        <v>60.12</v>
-      </c>
-      <c r="H61">
-        <v>50</v>
-      </c>
-      <c r="I61">
-        <v>198</v>
-      </c>
-      <c r="J61">
-        <v>297</v>
-      </c>
       <c r="K61">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="L61">
-        <v>336</v>
+        <v>596</v>
       </c>
       <c r="M61">
-        <v>0.8333333333333334</v>
+        <v>794</v>
       </c>
       <c r="N61">
-        <v>19.83722326514611</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P61">
+        <v>18</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
         <v>17</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>6203062</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>7332421+76</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>30</v>
+        <v>3104147</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>7455691+71</t>
+        </is>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>3.45</v>
+        <v>20</v>
       </c>
       <c r="F62">
-        <v>1572</v>
+        <v>4.39</v>
       </c>
       <c r="G62">
-        <v>17.25</v>
+        <v>315</v>
       </c>
       <c r="H62">
-        <v>70</v>
+        <v>87.8</v>
       </c>
       <c r="I62">
-        <v>594</v>
+        <v>45</v>
       </c>
       <c r="J62">
+        <v>57</v>
+      </c>
+      <c r="K62">
+        <v>333</v>
+      </c>
+      <c r="L62">
         <v>396</v>
       </c>
-      <c r="K62">
-        <v>357</v>
-      </c>
-      <c r="L62">
-        <v>1692</v>
-      </c>
       <c r="M62">
+        <v>297</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
         <v>6</v>
       </c>
-      <c r="N62">
-        <v>2.472104497463984</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
       <c r="P62">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>1.2</v>
+      </c>
+      <c r="R62">
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>6203062</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>7332422+76</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>30</v>
+        <v>3104147</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7455692+71</t>
+        </is>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>1.57</v>
+        <v>20</v>
       </c>
       <c r="F63">
-        <v>1572</v>
+        <v>4.39</v>
       </c>
       <c r="G63">
-        <v>7.850000000000001</v>
+        <v>315</v>
       </c>
       <c r="H63">
-        <v>70</v>
+        <v>87.8</v>
       </c>
       <c r="I63">
-        <v>594</v>
+        <v>45</v>
       </c>
       <c r="J63">
+        <v>57</v>
+      </c>
+      <c r="K63">
+        <v>333</v>
+      </c>
+      <c r="L63">
         <v>396</v>
       </c>
-      <c r="K63">
-        <v>529</v>
-      </c>
-      <c r="L63">
-        <v>2508</v>
-      </c>
       <c r="M63">
+        <v>297</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
         <v>6</v>
       </c>
-      <c r="N63">
-        <v>2.472104497463984</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
       <c r="P63">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>1.2</v>
+      </c>
+      <c r="R63">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
